--- a/Document/无损放电仪_迪文RAM变量分配表.xlsx
+++ b/Document/无损放电仪_迪文RAM变量分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>主界面</t>
   </si>
@@ -51,7 +51,19 @@
     <t>0V</t>
   </si>
   <si>
-    <t>当前放电电压</t>
+    <r>
+      <t>交流输出电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(当前放电电压)</t>
+    </r>
   </si>
   <si>
     <t>0x1002</t>
@@ -60,7 +72,28 @@
     <t>float(%03.2f)</t>
   </si>
   <si>
-    <t>当前放电电流</t>
+    <r>
+      <t>交流输出电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前放电电流）</t>
+    </r>
   </si>
   <si>
     <t>0x1004</t>
@@ -90,7 +123,30 @@
     <t>0min</t>
   </si>
   <si>
-    <t>当前放电电量</t>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前电池电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）当前放电电量</t>
+    </r>
   </si>
   <si>
     <t>0x100A</t>
@@ -102,7 +158,30 @@
     <t>0Ah</t>
   </si>
   <si>
-    <t>当前放电功率</t>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交流放电功率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）当前放电功率</t>
+    </r>
   </si>
   <si>
     <t>0x100C</t>
@@ -111,10 +190,39 @@
     <t>0W</t>
   </si>
   <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）当前转换效率</t>
+    </r>
+  </si>
+  <si>
+    <t>0x100E</t>
+  </si>
+  <si>
     <t>正在充电</t>
   </si>
   <si>
-    <t>0x100E.bit0</t>
+    <t>0x1010.bit0</t>
   </si>
   <si>
     <t>bit</t>
@@ -126,37 +234,37 @@
     <t>待机状态</t>
   </si>
   <si>
-    <t>0x100E.bit1</t>
+    <t>0x1010.bit1</t>
   </si>
   <si>
     <t>正在放电</t>
   </si>
   <si>
-    <t>0x100E.bit2</t>
+    <t>0x1010.bit2</t>
   </si>
   <si>
     <t>放电故障</t>
   </si>
   <si>
-    <t>0x100E.bit3</t>
+    <t>0x1010.bit3</t>
   </si>
   <si>
     <t>开始放电</t>
   </si>
   <si>
-    <t>0x100E.bit4</t>
+    <t>0x1010.bit4</t>
   </si>
   <si>
     <t>放电结束</t>
   </si>
   <si>
-    <t>0x100E.bit5</t>
+    <t>0x1010.bit5</t>
   </si>
   <si>
     <t>放电动画</t>
   </si>
   <si>
-    <t>0x100F</t>
+    <t>0x1011</t>
   </si>
   <si>
     <t>int</t>
@@ -174,7 +282,7 @@
     <t>本地从站地址号</t>
   </si>
   <si>
-    <t>0x1011</t>
+    <t>0x1012</t>
   </si>
   <si>
     <t>int(%02d)</t>
@@ -186,7 +294,7 @@
     <t>放电时长</t>
   </si>
   <si>
-    <t>0x1012</t>
+    <t>0x1013</t>
   </si>
   <si>
     <t>120min</t>
@@ -195,7 +303,7 @@
     <t>电池放电截止电压</t>
   </si>
   <si>
-    <t>0x1013</t>
+    <t>0x1014</t>
   </si>
   <si>
     <t>int(%02.1d)</t>
@@ -207,13 +315,13 @@
     <t>电池二次启放电压</t>
   </si>
   <si>
-    <t>0x1014</t>
+    <t>0x1015</t>
   </si>
   <si>
     <t>电池最大放电电流</t>
   </si>
   <si>
-    <t>0x1015</t>
+    <t>0x1016</t>
   </si>
   <si>
     <t>1A</t>
@@ -222,7 +330,7 @@
     <t>电池最大放电功率</t>
   </si>
   <si>
-    <t>0x1016</t>
+    <t>0x1017</t>
   </si>
   <si>
     <t>int(%04d)</t>
@@ -234,7 +342,7 @@
     <t>模式选择按钮</t>
   </si>
   <si>
-    <t>0x1017</t>
+    <t>0x1018</t>
   </si>
   <si>
     <t>int(0xF1/0xF0)</t>
@@ -310,7 +418,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +438,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,8 +601,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,10 +1069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,36 +1081,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,98 +1117,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,25 +1242,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,22 +1302,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,16 +1385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1271,8 +1411,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6103620" y="99060"/>
-          <a:ext cx="6103620" cy="3693795"/>
+          <a:off x="13114020" y="190500"/>
+          <a:ext cx="6103620" cy="3703320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,7 +1436,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>229235</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1313,8 +1453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6111240" y="4570095"/>
-          <a:ext cx="5784215" cy="3531870"/>
+          <a:off x="7117080" y="4579620"/>
+          <a:ext cx="5784215" cy="3569970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1355,7 +1495,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6111240" y="8507730"/>
+          <a:off x="7117080" y="8507730"/>
           <a:ext cx="5708015" cy="3427730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1365,6 +1505,87 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296545</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="f790e954b5d78a0ff7f5702748ab8f5d"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6796405" y="200660"/>
+          <a:ext cx="6101715" cy="3689350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="f790e954b5d78a0ff7f5702748ab8f5d"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="527050" y="2264410"/>
+          <a:ext cx="6957060" cy="4206240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1661,13 +1882,13 @@
   <sheetPr/>
   <dimension ref="B2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="24.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,7 +1932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" ht="15.15" spans="2:8">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1952,7 @@
       </c>
     </row>
     <row r="7" ht="15.15" spans="2:8">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9"/>
@@ -1750,7 +1971,7 @@
       </c>
     </row>
     <row r="8" ht="15.15" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="9"/>
@@ -1787,7 +2008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="2:8">
+    <row r="10" spans="2:8">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1845,41 +2066,41 @@
       </c>
     </row>
     <row r="13" ht="15.15" spans="2:8">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>34</v>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="2:8">
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="2:8">
@@ -1895,10 +2116,10 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="2:8">
@@ -1914,10 +2135,10 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="2:8">
@@ -1933,10 +2154,10 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="2:8">
@@ -1952,10 +2173,10 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="2:8">
@@ -1971,43 +2192,62 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="2:8">
+      <c r="B20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" ht="15.15" spans="2:8">
-      <c r="B20" s="10" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="2:8">
+      <c r="B21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="24" ht="15.15"/>
     <row r="25" ht="15.15" spans="2:8">
-      <c r="B25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" ht="15.15" spans="2:8">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" ht="15.15" spans="2:8">
       <c r="B27" s="2" t="s">
@@ -2028,137 +2268,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="15.15" spans="2:8">
+    <row r="28" spans="2:8">
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="15.15" spans="2:8">
-      <c r="B29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="13"/>
+      <c r="B29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="2:8">
+      <c r="B30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="16"/>
       <c r="D30" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="13"/>
+      <c r="B31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="13"/>
+      <c r="B32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="16"/>
       <c r="D32" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="13"/>
+      <c r="B33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" ht="15.15" spans="2:8">
-      <c r="B34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="E34" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" ht="15.15" spans="2:8">
@@ -2172,18 +2412,18 @@
     </row>
     <row r="36" ht="15.15" spans="2:8">
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -2215,143 +2455,143 @@
       <c r="H39" s="8"/>
     </row>
     <row r="40" ht="15.15" spans="2:8">
-      <c r="B40" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="B40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="21"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="22"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="23" t="s">
+      <c r="B55" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="24"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
+      <c r="B56" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
+      <c r="B57" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="79">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B6:C6"/>
@@ -2382,7 +2622,9 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B28:C28"/>
@@ -2443,7 +2685,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E8" sqref="E8:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2459,8 +2701,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2468,5 +2710,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>